--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14895" windowHeight="4425"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Zeitplanung für das Projekt Lichtstrahlen</t>
   </si>
@@ -52,6 +53,9 @@
   </si>
   <si>
     <t>Woche 1 (11.11.2013 - 15.11.2013)</t>
+  </si>
+  <si>
+    <t>Kevin Griesbach</t>
   </si>
 </sst>
 </file>
@@ -59,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00\ &quot;Std.&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00\ &quot;Std.&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -86,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -95,22 +99,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -134,8 +123,172 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -143,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,28 +304,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +656,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,13 +666,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
@@ -503,79 +680,88 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>5</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
